--- a/data/pca/factorExposure/factorExposure_2013-05-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-05-08.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006171020360020861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001903484017000795</v>
+      </c>
+      <c r="C2">
+        <v>-0.03312485659094668</v>
+      </c>
+      <c r="D2">
+        <v>0.007498714160190279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.002111751307906587</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006092347727570327</v>
+      </c>
+      <c r="C4">
+        <v>-0.08465987128312202</v>
+      </c>
+      <c r="D4">
+        <v>0.07819527011319573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001752700326527826</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01335584846484292</v>
+      </c>
+      <c r="C6">
+        <v>-0.1080778222998865</v>
+      </c>
+      <c r="D6">
+        <v>0.03336235690254881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.002296831908184317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004793402919341538</v>
+      </c>
+      <c r="C7">
+        <v>-0.05276626679414378</v>
+      </c>
+      <c r="D7">
+        <v>0.03824662896510965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0009707401766438949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005663453601849563</v>
+      </c>
+      <c r="C8">
+        <v>-0.0367787435018598</v>
+      </c>
+      <c r="D8">
+        <v>0.03926226152707691</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.005484715659204002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004086785393456918</v>
+      </c>
+      <c r="C9">
+        <v>-0.0697640945077935</v>
+      </c>
+      <c r="D9">
+        <v>0.07179766727412783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002718220054229686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005669554175136244</v>
+      </c>
+      <c r="C10">
+        <v>-0.07400074497663844</v>
+      </c>
+      <c r="D10">
+        <v>-0.2106266971731164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003711871155796409</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005253356728671577</v>
+      </c>
+      <c r="C11">
+        <v>-0.07785492874839543</v>
+      </c>
+      <c r="D11">
+        <v>0.06584038292930561</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0002618980393000964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004035960551302285</v>
+      </c>
+      <c r="C12">
+        <v>-0.06373432054799817</v>
+      </c>
+      <c r="D12">
+        <v>0.04809529707287902</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002758302637915372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008570566439297647</v>
+      </c>
+      <c r="C13">
+        <v>-0.06915831522727431</v>
+      </c>
+      <c r="D13">
+        <v>0.06517625699973419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.002324072077922303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001521180578805435</v>
+      </c>
+      <c r="C14">
+        <v>-0.04656626130297824</v>
+      </c>
+      <c r="D14">
+        <v>0.0134639752433751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.00240141428376187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.005866687090152912</v>
+      </c>
+      <c r="C15">
+        <v>-0.03828863893800746</v>
+      </c>
+      <c r="D15">
+        <v>0.03644686012943372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001977912489440325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004922271741737055</v>
+      </c>
+      <c r="C16">
+        <v>-0.06444275349370174</v>
+      </c>
+      <c r="D16">
+        <v>0.05018466104571867</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0004169805183848677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008943832870610648</v>
+      </c>
+      <c r="C20">
+        <v>-0.06465546802054839</v>
+      </c>
+      <c r="D20">
+        <v>0.05620468849360165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005975107779488725</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009850478982650438</v>
+      </c>
+      <c r="C21">
+        <v>-0.02335025839526179</v>
+      </c>
+      <c r="D21">
+        <v>0.03366571543492848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01673884992092144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006806802751429687</v>
+      </c>
+      <c r="C22">
+        <v>-0.09260487161225381</v>
+      </c>
+      <c r="D22">
+        <v>0.1023834408568067</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01707859881266761</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.006618301669363301</v>
+      </c>
+      <c r="C23">
+        <v>-0.09347980973817129</v>
+      </c>
+      <c r="D23">
+        <v>0.1027000822219664</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002765757312111378</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004855088681104234</v>
+      </c>
+      <c r="C24">
+        <v>-0.07294647771940618</v>
+      </c>
+      <c r="D24">
+        <v>0.06242388814543209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004669623167821666</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002732897095539214</v>
+      </c>
+      <c r="C25">
+        <v>-0.07704281694830711</v>
+      </c>
+      <c r="D25">
+        <v>0.06727156845694439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00655923754712012</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003614067345314752</v>
+      </c>
+      <c r="C26">
+        <v>-0.04023521948771425</v>
+      </c>
+      <c r="D26">
+        <v>0.02849376665742228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007105208814570675</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0004082723018966391</v>
+      </c>
+      <c r="C28">
+        <v>-0.1244756772935079</v>
+      </c>
+      <c r="D28">
+        <v>-0.3089823579944363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.002108432513920165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003251762711219553</v>
+      </c>
+      <c r="C29">
+        <v>-0.04851408315227804</v>
+      </c>
+      <c r="D29">
+        <v>0.0139087646737922</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.004364089195911761</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.008785552274154666</v>
+      </c>
+      <c r="C30">
+        <v>-0.1369512887520556</v>
+      </c>
+      <c r="D30">
+        <v>0.1097662835505509</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0003586918585420278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006115303108813669</v>
+      </c>
+      <c r="C31">
+        <v>-0.04542120189555823</v>
+      </c>
+      <c r="D31">
+        <v>0.03225860476837099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.001039301032927646</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004074694816477605</v>
+      </c>
+      <c r="C32">
+        <v>-0.04101549262362152</v>
+      </c>
+      <c r="D32">
+        <v>0.01628611669782836</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.003785107282715811</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007838827220066336</v>
+      </c>
+      <c r="C33">
+        <v>-0.08263263267844465</v>
+      </c>
+      <c r="D33">
+        <v>0.07559006404812603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004982078162634296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003782243571279543</v>
+      </c>
+      <c r="C34">
+        <v>-0.05748901674171226</v>
+      </c>
+      <c r="D34">
+        <v>0.04828406399071894</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.002873561840436509</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.00491473146768189</v>
+      </c>
+      <c r="C35">
+        <v>-0.0386926694119161</v>
+      </c>
+      <c r="D35">
+        <v>0.01352134884471242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004873375282444706</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00132438737634536</v>
+      </c>
+      <c r="C36">
+        <v>-0.02342697002640279</v>
+      </c>
+      <c r="D36">
+        <v>0.02277751473623258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001506946313588427</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009235362643120221</v>
+      </c>
+      <c r="C38">
+        <v>-0.03189897180138565</v>
+      </c>
+      <c r="D38">
+        <v>0.02161576401482149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01293921984496603</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.00090981890027211</v>
+      </c>
+      <c r="C39">
+        <v>-0.1151175629376617</v>
+      </c>
+      <c r="D39">
+        <v>0.08558071247453912</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007975169008039278</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002262858588751326</v>
+      </c>
+      <c r="C40">
+        <v>-0.08676505430142589</v>
+      </c>
+      <c r="D40">
+        <v>0.02231013278705417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0005597598596685475</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007371728276101605</v>
+      </c>
+      <c r="C41">
+        <v>-0.03893138612223434</v>
+      </c>
+      <c r="D41">
+        <v>0.03524962750026724</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00335297867522132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.00347588362424011</v>
+      </c>
+      <c r="C43">
+        <v>-0.05005916077771594</v>
+      </c>
+      <c r="D43">
+        <v>0.0279135717863605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00291115307325108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003580420415431045</v>
+      </c>
+      <c r="C44">
+        <v>-0.107957859699697</v>
+      </c>
+      <c r="D44">
+        <v>0.08510003385964678</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.002573548932526655</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002289590043185801</v>
+      </c>
+      <c r="C46">
+        <v>-0.0345833843011283</v>
+      </c>
+      <c r="D46">
+        <v>0.03123336493493949</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0005547317521546635</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002725776041206419</v>
+      </c>
+      <c r="C47">
+        <v>-0.0386576198120123</v>
+      </c>
+      <c r="D47">
+        <v>0.0218858378997366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.004040467441349226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006383027334517889</v>
+      </c>
+      <c r="C48">
+        <v>-0.02839683312137196</v>
+      </c>
+      <c r="D48">
+        <v>0.03180717557901962</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01240561008543002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01424549681246338</v>
+      </c>
+      <c r="C49">
+        <v>-0.1716650961495841</v>
+      </c>
+      <c r="D49">
+        <v>0.03213957836155796</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.0008812547027168198</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003627649835982494</v>
+      </c>
+      <c r="C50">
+        <v>-0.04230299282381007</v>
+      </c>
+      <c r="D50">
+        <v>0.03615063239581674</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001892771528807074</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00428815757991834</v>
+      </c>
+      <c r="C51">
+        <v>-0.01981311141538847</v>
+      </c>
+      <c r="D51">
+        <v>0.03316697388256808</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0003221761806808743</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02027206271312008</v>
+      </c>
+      <c r="C53">
+        <v>-0.1654407614358522</v>
+      </c>
+      <c r="D53">
+        <v>0.04864968814009933</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0002498711024851488</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008631327202963932</v>
+      </c>
+      <c r="C54">
+        <v>-0.05503436312986894</v>
+      </c>
+      <c r="D54">
+        <v>0.04311824085664434</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004267383770410074</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009289313461634113</v>
+      </c>
+      <c r="C55">
+        <v>-0.1054921087410722</v>
+      </c>
+      <c r="D55">
+        <v>0.0524429524124947</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002727249927668608</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01952965705811278</v>
+      </c>
+      <c r="C56">
+        <v>-0.1713304991119766</v>
+      </c>
+      <c r="D56">
+        <v>0.04870543802037564</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.008271303572343831</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01937047436883501</v>
+      </c>
+      <c r="C58">
+        <v>-0.1029948663778377</v>
+      </c>
+      <c r="D58">
+        <v>0.07138681019595575</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.008930939831234096</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009595028105124009</v>
+      </c>
+      <c r="C59">
+        <v>-0.1687747857960414</v>
+      </c>
+      <c r="D59">
+        <v>-0.2814511953011912</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.005888848145875149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02342049077212645</v>
+      </c>
+      <c r="C60">
+        <v>-0.221620856523635</v>
+      </c>
+      <c r="D60">
+        <v>0.02897680099101195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01437191120489581</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001962089457002441</v>
+      </c>
+      <c r="C61">
+        <v>-0.09446675691554914</v>
+      </c>
+      <c r="D61">
+        <v>0.06370887859734242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.178241437930637</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1438334046145904</v>
+      </c>
+      <c r="C62">
+        <v>-0.07827582439688728</v>
+      </c>
+      <c r="D62">
+        <v>0.05580944957136835</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.001974239751254496</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.00639563728258864</v>
+      </c>
+      <c r="C63">
+        <v>-0.05896367043854609</v>
+      </c>
+      <c r="D63">
+        <v>0.02627010574554756</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.005673999795272179</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01470379045431318</v>
+      </c>
+      <c r="C64">
+        <v>-0.1024064149178315</v>
+      </c>
+      <c r="D64">
+        <v>0.06488881373867007</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.0007067261614216583</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01701336351618817</v>
+      </c>
+      <c r="C65">
+        <v>-0.1148121916180201</v>
+      </c>
+      <c r="D65">
+        <v>0.02595211230029641</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.008700970659183292</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01230792049987433</v>
+      </c>
+      <c r="C66">
+        <v>-0.1533809608009297</v>
+      </c>
+      <c r="D66">
+        <v>0.1246487378140538</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.002739487022218445</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01536415386768329</v>
+      </c>
+      <c r="C67">
+        <v>-0.06186892220605478</v>
+      </c>
+      <c r="D67">
+        <v>0.03274109221490543</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.008999021815176271</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001245932606137817</v>
+      </c>
+      <c r="C68">
+        <v>-0.1069708116919977</v>
+      </c>
+      <c r="D68">
+        <v>-0.2618790785552919</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.002963469506206761</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005958302197774816</v>
+      </c>
+      <c r="C69">
+        <v>-0.04753838430572472</v>
+      </c>
+      <c r="D69">
+        <v>0.0430311237740599</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001751989885443426</v>
+      </c>
+      <c r="C70">
+        <v>-0.002177193522406609</v>
+      </c>
+      <c r="D70">
+        <v>0.002170951604892727</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.00511810972823725</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.00616062616513094</v>
+      </c>
+      <c r="C71">
+        <v>-0.1102456655690049</v>
+      </c>
+      <c r="D71">
+        <v>-0.2844681240105625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.007947449129440707</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01554431471258251</v>
+      </c>
+      <c r="C72">
+        <v>-0.1489040112016687</v>
+      </c>
+      <c r="D72">
+        <v>0.02224906144689289</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01111747676293241</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.02932386645804056</v>
+      </c>
+      <c r="C73">
+        <v>-0.2815972020002595</v>
+      </c>
+      <c r="D73">
+        <v>0.04772007910808258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00448317129344477</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001340888002687211</v>
+      </c>
+      <c r="C74">
+        <v>-0.1043917987308037</v>
+      </c>
+      <c r="D74">
+        <v>0.04447565615172694</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.005621522356677321</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01058937453352165</v>
+      </c>
+      <c r="C75">
+        <v>-0.1307483435683661</v>
+      </c>
+      <c r="D75">
+        <v>0.03116875442502281</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.01167550643186504</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02122279758988281</v>
+      </c>
+      <c r="C76">
+        <v>-0.1463660283300707</v>
+      </c>
+      <c r="D76">
+        <v>0.07253209495895924</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001993384160571316</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02427185473686488</v>
+      </c>
+      <c r="C77">
+        <v>-0.1338480057239486</v>
+      </c>
+      <c r="D77">
+        <v>0.06349069992999738</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0006723544375111422</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01427089208637879</v>
+      </c>
+      <c r="C78">
+        <v>-0.09269611585290241</v>
+      </c>
+      <c r="D78">
+        <v>0.06688941212120039</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02643875006787718</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03689010774199365</v>
+      </c>
+      <c r="C79">
+        <v>-0.1562271053555866</v>
+      </c>
+      <c r="D79">
+        <v>0.03520098934066637</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.004739210956576818</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01037611891974251</v>
+      </c>
+      <c r="C80">
+        <v>-0.0409447541296637</v>
+      </c>
+      <c r="D80">
+        <v>0.03300755318807602</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001779082412363295</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.0145640635600349</v>
+      </c>
+      <c r="C81">
+        <v>-0.1220048500346898</v>
+      </c>
+      <c r="D81">
+        <v>0.05764936446153247</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005680459566282337</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01952501099752471</v>
+      </c>
+      <c r="C82">
+        <v>-0.1419241591310012</v>
+      </c>
+      <c r="D82">
+        <v>0.04648482188680973</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009196782019204111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009926398880323942</v>
+      </c>
+      <c r="C83">
+        <v>-0.05659764703719931</v>
+      </c>
+      <c r="D83">
+        <v>0.04809559444022794</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01355692081661513</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01168941803815641</v>
+      </c>
+      <c r="C84">
+        <v>-0.03171941980439705</v>
+      </c>
+      <c r="D84">
+        <v>-0.00183156453538192</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01451078694542901</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.0278984145143575</v>
+      </c>
+      <c r="C85">
+        <v>-0.1279095252690509</v>
+      </c>
+      <c r="D85">
+        <v>0.05054436910503864</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002901168306490744</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.00549544072432438</v>
+      </c>
+      <c r="C86">
+        <v>-0.04918040061006329</v>
+      </c>
+      <c r="D86">
+        <v>0.02142934149481895</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.007844427849956771</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01020232884497898</v>
+      </c>
+      <c r="C87">
+        <v>-0.1286788033865638</v>
+      </c>
+      <c r="D87">
+        <v>0.07925923288175819</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01523139575212712</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.00283891540175422</v>
+      </c>
+      <c r="C88">
+        <v>-0.06870031221470181</v>
+      </c>
+      <c r="D88">
+        <v>0.01606758413750011</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01755514637118334</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.0007891516780294363</v>
+      </c>
+      <c r="C89">
+        <v>-0.1617368037466733</v>
+      </c>
+      <c r="D89">
+        <v>-0.3410388120646187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.005871867002763168</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007480734704335039</v>
+      </c>
+      <c r="C90">
+        <v>-0.140205262874467</v>
+      </c>
+      <c r="D90">
+        <v>-0.3197232906555274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.001293749203942592</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01021191805782518</v>
+      </c>
+      <c r="C91">
+        <v>-0.1048584951689801</v>
+      </c>
+      <c r="D91">
+        <v>0.0207992714692014</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01450013403117318</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.0006452583355521028</v>
+      </c>
+      <c r="C92">
+        <v>-0.14998210487651</v>
+      </c>
+      <c r="D92">
+        <v>-0.3278245532402309</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.003472733202473227</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005415145271346136</v>
+      </c>
+      <c r="C93">
+        <v>-0.1240051529856988</v>
+      </c>
+      <c r="D93">
+        <v>-0.3127476217347435</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003981988328095056</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02223661513408484</v>
+      </c>
+      <c r="C94">
+        <v>-0.1556110657612305</v>
+      </c>
+      <c r="D94">
+        <v>0.03469601586369695</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004992037261845045</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01606860975290104</v>
+      </c>
+      <c r="C95">
+        <v>-0.1237331179359499</v>
+      </c>
+      <c r="D95">
+        <v>0.06854593223351883</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.003596677799464054</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03472702809071376</v>
+      </c>
+      <c r="C97">
+        <v>-0.1789140889758329</v>
+      </c>
+      <c r="D97">
+        <v>0.04151852019886001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.007308959294355797</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03648607994037249</v>
+      </c>
+      <c r="C98">
+        <v>-0.25458179023398</v>
+      </c>
+      <c r="D98">
+        <v>0.04475067548765124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9816503829016952</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.982672237843373</v>
+      </c>
+      <c r="C99">
+        <v>0.1102537168094813</v>
+      </c>
+      <c r="D99">
+        <v>-0.03203182004746464</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.002065244470285733</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003294927089954169</v>
+      </c>
+      <c r="C101">
+        <v>-0.04853696390645319</v>
+      </c>
+      <c r="D101">
+        <v>0.01430977822556785</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
